--- a/Code/Results/Cases/Case_3_127/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_127/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.47209940683676</v>
+        <v>17.11601931561875</v>
       </c>
       <c r="C2">
-        <v>6.012666724479958</v>
+        <v>6.064933174463656</v>
       </c>
       <c r="D2">
-        <v>11.36299186764766</v>
+        <v>10.80832145204679</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>65.39611471406938</v>
+        <v>55.01270400377355</v>
       </c>
       <c r="G2">
-        <v>2.142266171070245</v>
+        <v>3.751717750793297</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.45347391719557</v>
+        <v>13.11887176344386</v>
       </c>
       <c r="L2">
-        <v>8.081134659044448</v>
+        <v>10.98213803574132</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.68115436838387</v>
+        <v>17.05524242793263</v>
       </c>
       <c r="C3">
-        <v>5.832154679531244</v>
+        <v>5.999734391021541</v>
       </c>
       <c r="D3">
-        <v>10.95075308659052</v>
+        <v>10.6628974521364</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>62.00818369835282</v>
+        <v>53.8429345540741</v>
       </c>
       <c r="G3">
-        <v>2.153620210605135</v>
+        <v>3.755425741005651</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.678482410354727</v>
+        <v>13.11909336979767</v>
       </c>
       <c r="L3">
-        <v>7.813780225952248</v>
+        <v>10.9651620454239</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.19137189522523</v>
+        <v>17.0245745823268</v>
       </c>
       <c r="C4">
-        <v>5.719760278459948</v>
+        <v>5.957822854517259</v>
       </c>
       <c r="D4">
-        <v>10.69282637312376</v>
+        <v>10.57152734512496</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>59.86932674215342</v>
+        <v>53.11361427749759</v>
       </c>
       <c r="G4">
-        <v>2.160725646189583</v>
+        <v>3.757817100409683</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.180893643005028</v>
+        <v>13.12465451522965</v>
       </c>
       <c r="L4">
-        <v>7.651857709618552</v>
+        <v>10.95706919139572</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.99096132827126</v>
+        <v>17.01375922874371</v>
       </c>
       <c r="C5">
-        <v>5.673507035817274</v>
+        <v>5.940269308914678</v>
       </c>
       <c r="D5">
-        <v>10.58652598090099</v>
+        <v>10.5337862859676</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>58.98340145162878</v>
+        <v>52.81392287966712</v>
       </c>
       <c r="G5">
-        <v>2.163658038383686</v>
+        <v>3.758820542308858</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.972522865593332</v>
+        <v>13.12828241051463</v>
       </c>
       <c r="L5">
-        <v>7.586484031221596</v>
+        <v>10.95435893048163</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.95764131304839</v>
+        <v>17.01206517908241</v>
       </c>
       <c r="C6">
-        <v>5.665797810204894</v>
+        <v>5.937325862495473</v>
       </c>
       <c r="D6">
-        <v>10.56880353001477</v>
+        <v>10.52748925925846</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>58.83544475870694</v>
+        <v>52.76401803809009</v>
       </c>
       <c r="G6">
-        <v>2.164147274443422</v>
+        <v>3.758988914615108</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.937581179818546</v>
+        <v>13.12896696301556</v>
       </c>
       <c r="L6">
-        <v>7.575667251739107</v>
+        <v>10.9539444246209</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.18867207630111</v>
+        <v>17.02442190100284</v>
       </c>
       <c r="C7">
-        <v>5.719138394216404</v>
+        <v>5.957588043689042</v>
       </c>
       <c r="D7">
-        <v>10.69139756943859</v>
+        <v>10.5710203875912</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>59.85743615766174</v>
+        <v>53.10958220451722</v>
       </c>
       <c r="G7">
-        <v>2.160765040170548</v>
+        <v>3.757830515834022</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.178106321587572</v>
+        <v>13.12469793326521</v>
       </c>
       <c r="L7">
-        <v>7.650973513269374</v>
+        <v>10.95703025871318</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.20035508656622</v>
+        <v>17.09369015579117</v>
       </c>
       <c r="C8">
-        <v>5.950712113485823</v>
+        <v>6.04284162657036</v>
       </c>
       <c r="D8">
-        <v>11.22185626587498</v>
+        <v>10.75862016963302</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>64.24033337002027</v>
+        <v>54.61184172923682</v>
       </c>
       <c r="G8">
-        <v>2.146155226858928</v>
+        <v>3.752972543089152</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.19068632033656</v>
+        <v>13.1178211000347</v>
       </c>
       <c r="L8">
-        <v>7.988514387819756</v>
+        <v>10.97580213057443</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.16389886972252</v>
+        <v>17.2817208683403</v>
       </c>
       <c r="C9">
-        <v>6.395482739166993</v>
+        <v>6.195192843573292</v>
       </c>
       <c r="D9">
-        <v>12.22392657527113</v>
+        <v>11.10933390395251</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.35985604754835</v>
+        <v>57.45741191065778</v>
       </c>
       <c r="G9">
-        <v>2.118409593134607</v>
+        <v>3.744350341478528</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.01038972634569</v>
+        <v>13.14743019466385</v>
       </c>
       <c r="L9">
-        <v>8.666464191903451</v>
+        <v>11.03101535327647</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.81500086313036</v>
+        <v>17.45075616909981</v>
       </c>
       <c r="C10">
-        <v>6.721387539340203</v>
+        <v>6.298198832757455</v>
       </c>
       <c r="D10">
-        <v>12.93810321220552</v>
+        <v>11.35567481097404</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.03458341222016</v>
+        <v>59.47115799376962</v>
       </c>
       <c r="G10">
-        <v>2.098325837965188</v>
+        <v>3.738559392610596</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.25626910345902</v>
+        <v>13.19543109901701</v>
       </c>
       <c r="L10">
-        <v>9.172957949072501</v>
+        <v>11.08265230271639</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.54574083286083</v>
+        <v>17.53411287956044</v>
       </c>
       <c r="C11">
-        <v>6.87074152373007</v>
+        <v>6.343145707301785</v>
       </c>
       <c r="D11">
-        <v>13.25884225241251</v>
+        <v>11.4651088664133</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.55631805965436</v>
+        <v>60.36753678036967</v>
       </c>
       <c r="G11">
-        <v>2.089189386608413</v>
+        <v>3.736041414325954</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.80586491983043</v>
+        <v>13.22293216577624</v>
       </c>
       <c r="L11">
-        <v>9.405215650386536</v>
+        <v>11.10850700305302</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.81977775150093</v>
+        <v>17.56658277687243</v>
       </c>
       <c r="C12">
-        <v>6.927582229408988</v>
+        <v>6.359893045981132</v>
       </c>
       <c r="D12">
-        <v>13.37978035766374</v>
+        <v>11.50615684829694</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.50313874295449</v>
+        <v>60.70390928029092</v>
       </c>
       <c r="G12">
-        <v>2.085723270605048</v>
+        <v>3.735104529393912</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.0117627356954</v>
+        <v>13.23415549806269</v>
       </c>
       <c r="L12">
-        <v>9.49345664886067</v>
+        <v>11.11863338123225</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.76087359654941</v>
+        <v>17.55954998876426</v>
       </c>
       <c r="C13">
-        <v>6.915325742351444</v>
+        <v>6.356298323789941</v>
       </c>
       <c r="D13">
-        <v>13.35375576711202</v>
+        <v>11.49733410356078</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.29957479312033</v>
+        <v>60.63160542205962</v>
       </c>
       <c r="G13">
-        <v>2.086470152936292</v>
+        <v>3.735305566992451</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.96751352045979</v>
+        <v>13.23170246066779</v>
       </c>
       <c r="L13">
-        <v>9.474438862598229</v>
+        <v>11.11643762418621</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.56833808279306</v>
+        <v>17.53676621804737</v>
       </c>
       <c r="C14">
-        <v>6.875411369819913</v>
+        <v>6.344528983568114</v>
       </c>
       <c r="D14">
-        <v>13.26880177554233</v>
+        <v>11.46849385201693</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.63437258879554</v>
+        <v>60.39527310395084</v>
       </c>
       <c r="G14">
-        <v>2.088904393600488</v>
+        <v>3.735964003817876</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.82284726779056</v>
+        <v>13.22383933286924</v>
       </c>
       <c r="L14">
-        <v>9.412469264949113</v>
+        <v>11.10933340316632</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.45006398553257</v>
+        <v>17.52292752936388</v>
       </c>
       <c r="C15">
-        <v>6.851003656580811</v>
+        <v>6.337284413424777</v>
       </c>
       <c r="D15">
-        <v>13.21670012550712</v>
+        <v>11.45077685431287</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.22587893690554</v>
+        <v>60.2501066319701</v>
       </c>
       <c r="G15">
-        <v>2.090394407990449</v>
+        <v>3.736369476302648</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.73395346836546</v>
+        <v>13.21912814761553</v>
       </c>
       <c r="L15">
-        <v>9.374549939553967</v>
+        <v>11.10502545440199</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.76685575922532</v>
+        <v>17.44543657628986</v>
       </c>
       <c r="C16">
-        <v>6.711659317649089</v>
+        <v>6.295223141775547</v>
       </c>
       <c r="D16">
-        <v>12.91706484197712</v>
+        <v>11.34846891296557</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.86861741576053</v>
+        <v>59.41216087779664</v>
       </c>
       <c r="G16">
-        <v>2.098922402791101</v>
+        <v>3.738726280102996</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.22002665643458</v>
+        <v>13.19374741141601</v>
       </c>
       <c r="L16">
-        <v>9.157818177103751</v>
+        <v>11.08100986609702</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.34267690694732</v>
+        <v>17.39953649073968</v>
       </c>
       <c r="C17">
-        <v>6.626540956483387</v>
+        <v>6.268931678146318</v>
       </c>
       <c r="D17">
-        <v>12.73223466343218</v>
+        <v>11.28502282163094</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.4075029757272</v>
+        <v>58.89289350989574</v>
       </c>
       <c r="G17">
-        <v>2.104149775471446</v>
+        <v>3.740201823533925</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.90051861223497</v>
+        <v>13.17962478028607</v>
       </c>
       <c r="L17">
-        <v>9.025344882913497</v>
+        <v>11.06687984653038</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.09676665307358</v>
+        <v>17.37374579449265</v>
       </c>
       <c r="C18">
-        <v>6.577677945005719</v>
+        <v>6.253629539782203</v>
       </c>
       <c r="D18">
-        <v>12.62552928620757</v>
+        <v>11.24828380936031</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.56144694391853</v>
+        <v>58.59238495523746</v>
       </c>
       <c r="G18">
-        <v>2.107156824305423</v>
+        <v>3.741061475543871</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.71511430563939</v>
+        <v>13.17203546710088</v>
       </c>
       <c r="L18">
-        <v>8.949321363386547</v>
+        <v>11.05897550330909</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.01316680404474</v>
+        <v>17.36511896264204</v>
       </c>
       <c r="C19">
-        <v>6.561146527965392</v>
+        <v>6.248417533498684</v>
       </c>
       <c r="D19">
-        <v>12.58933070067129</v>
+        <v>11.23580272505735</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.27400274270708</v>
+        <v>58.49032941221522</v>
       </c>
       <c r="G19">
-        <v>2.108175206326471</v>
+        <v>3.741354424504518</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.65205237846394</v>
+        <v>13.16955765129557</v>
       </c>
       <c r="L19">
-        <v>8.923610190310173</v>
+        <v>11.05633763028371</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.38802997557963</v>
+        <v>17.40435969147147</v>
       </c>
       <c r="C20">
-        <v>6.635591287811312</v>
+        <v>6.271749064407267</v>
       </c>
       <c r="D20">
-        <v>12.75195064601352</v>
+        <v>11.29180238467148</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.56362413883943</v>
+        <v>58.94836257137727</v>
       </c>
       <c r="G20">
-        <v>2.103593313927189</v>
+        <v>3.740043616075563</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.9346979910393</v>
+        <v>13.18107296206239</v>
       </c>
       <c r="L20">
-        <v>9.039429023153927</v>
+        <v>11.06836097471057</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.62496087860618</v>
+        <v>17.54343402190223</v>
       </c>
       <c r="C21">
-        <v>6.887126393457249</v>
+        <v>6.347993321089124</v>
       </c>
       <c r="D21">
-        <v>13.29376817139029</v>
+        <v>11.47697569280691</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.82997381487172</v>
+        <v>60.46477466458149</v>
       </c>
       <c r="G21">
-        <v>2.088189624976066</v>
+        <v>3.735770154828759</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.86539743997512</v>
+        <v>13.22612701052935</v>
       </c>
       <c r="L21">
-        <v>9.43066307022886</v>
+        <v>11.11141100886662</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.41790915789875</v>
+        <v>17.63958655388773</v>
       </c>
       <c r="C22">
-        <v>7.053245234451795</v>
+        <v>6.396232525845997</v>
       </c>
       <c r="D22">
-        <v>13.6449064981326</v>
+        <v>11.59570412543549</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>83.57139385110301</v>
+        <v>61.43786456890692</v>
       </c>
       <c r="G22">
-        <v>2.078081848750312</v>
+        <v>3.733074015816662</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.4608499408705</v>
+        <v>13.26028601610674</v>
       </c>
       <c r="L22">
-        <v>9.688074649998992</v>
+        <v>11.14150149557816</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.9960158806621</v>
+        <v>17.5877955592246</v>
       </c>
       <c r="C23">
-        <v>6.964379742649733</v>
+        <v>6.370631335153027</v>
       </c>
       <c r="D23">
-        <v>13.45773743841348</v>
+        <v>11.53255096415517</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.11232806442274</v>
+        <v>60.92022650231973</v>
       </c>
       <c r="G23">
-        <v>2.083482602541887</v>
+        <v>3.734504174537075</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.1441280050913</v>
+        <v>13.24162556220553</v>
       </c>
       <c r="L23">
-        <v>9.550518523928233</v>
+        <v>11.12526429982646</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.36753223850468</v>
+        <v>17.40217725832931</v>
       </c>
       <c r="C24">
-        <v>6.631499415889863</v>
+        <v>6.270475906130078</v>
       </c>
       <c r="D24">
-        <v>12.7430384388794</v>
+        <v>11.28873816233235</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.49306061423668</v>
+        <v>58.92329114174102</v>
       </c>
       <c r="G24">
-        <v>2.103844884237353</v>
+        <v>3.740115106329196</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.91925085343078</v>
+        <v>13.18041658793539</v>
       </c>
       <c r="L24">
-        <v>9.033061157687742</v>
+        <v>11.06769067360209</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.62368318288615</v>
+        <v>17.22535195029981</v>
       </c>
       <c r="C25">
-        <v>6.275700623706097</v>
+        <v>6.155553733393596</v>
       </c>
       <c r="D25">
-        <v>11.95686027325285</v>
+        <v>11.01638533605263</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>70.21490564852523</v>
+        <v>56.70003242054506</v>
       </c>
       <c r="G25">
-        <v>2.125842760298947</v>
+        <v>3.746586842017204</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.53489938421571</v>
+        <v>13.13480347076997</v>
       </c>
       <c r="L25">
-        <v>8.481534837084705</v>
+        <v>11.01412198967354</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_127/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_127/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.11601931561875</v>
+        <v>14.47209940683677</v>
       </c>
       <c r="C2">
-        <v>6.064933174463656</v>
+        <v>6.012666724480219</v>
       </c>
       <c r="D2">
-        <v>10.80832145204679</v>
+        <v>11.36299186764759</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>55.01270400377355</v>
+        <v>65.39611471406923</v>
       </c>
       <c r="G2">
-        <v>3.751717750793297</v>
+        <v>2.142266171070239</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.11887176344386</v>
+        <v>10.45347391719553</v>
       </c>
       <c r="L2">
-        <v>10.98213803574132</v>
+        <v>8.081134659044462</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.05524242793263</v>
+        <v>13.68115436838384</v>
       </c>
       <c r="C3">
-        <v>5.999734391021541</v>
+        <v>5.832154679531248</v>
       </c>
       <c r="D3">
-        <v>10.6628974521364</v>
+        <v>10.95075308659077</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>53.8429345540741</v>
+        <v>62.00818369835299</v>
       </c>
       <c r="G3">
-        <v>3.755425741005651</v>
+        <v>2.153620210605004</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.11909336979767</v>
+        <v>9.678482410354768</v>
       </c>
       <c r="L3">
-        <v>10.9651620454239</v>
+        <v>7.813780225952262</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.0245745823268</v>
+        <v>13.19137189522517</v>
       </c>
       <c r="C4">
-        <v>5.957822854517259</v>
+        <v>5.719760278459546</v>
       </c>
       <c r="D4">
-        <v>10.57152734512496</v>
+        <v>10.69282637312378</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>53.11361427749759</v>
+        <v>59.86932674215344</v>
       </c>
       <c r="G4">
-        <v>3.757817100409683</v>
+        <v>2.160725646189312</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.12465451522965</v>
+        <v>9.180893643005028</v>
       </c>
       <c r="L4">
-        <v>10.95706919139572</v>
+        <v>7.651857709618544</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.01375922874371</v>
+        <v>12.99096132827125</v>
       </c>
       <c r="C5">
-        <v>5.940269308914678</v>
+        <v>5.673507035817541</v>
       </c>
       <c r="D5">
-        <v>10.5337862859676</v>
+        <v>10.58652598090087</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>52.81392287966712</v>
+        <v>58.98340145162872</v>
       </c>
       <c r="G5">
-        <v>3.758820542308858</v>
+        <v>2.163658038383545</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.12828241051463</v>
+        <v>8.972522865593421</v>
       </c>
       <c r="L5">
-        <v>10.95435893048163</v>
+        <v>7.586484031221537</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.01206517908241</v>
+        <v>12.95764131304832</v>
       </c>
       <c r="C6">
-        <v>5.937325862495473</v>
+        <v>5.665797810204758</v>
       </c>
       <c r="D6">
-        <v>10.52748925925846</v>
+        <v>10.56880353001466</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>52.76401803809009</v>
+        <v>58.83544475870689</v>
       </c>
       <c r="G6">
-        <v>3.758988914615108</v>
+        <v>2.164147274443692</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.12896696301556</v>
+        <v>8.937581179818626</v>
       </c>
       <c r="L6">
-        <v>10.9539444246209</v>
+        <v>7.575667251739092</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.02442190100284</v>
+        <v>13.18867207630108</v>
       </c>
       <c r="C7">
-        <v>5.957588043689042</v>
+        <v>5.719138394216404</v>
       </c>
       <c r="D7">
-        <v>10.5710203875912</v>
+        <v>10.69139756943862</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>53.10958220451722</v>
+        <v>59.85743615766152</v>
       </c>
       <c r="G7">
-        <v>3.757830515834022</v>
+        <v>2.160765040170159</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.12469793326521</v>
+        <v>9.178106321587631</v>
       </c>
       <c r="L7">
-        <v>10.95703025871318</v>
+        <v>7.650973513269389</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.09369015579117</v>
+        <v>14.20035508656618</v>
       </c>
       <c r="C8">
-        <v>6.04284162657036</v>
+        <v>5.950712113485955</v>
       </c>
       <c r="D8">
-        <v>10.75862016963302</v>
+        <v>11.22185626587501</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>54.61184172923682</v>
+        <v>64.24033337001977</v>
       </c>
       <c r="G8">
-        <v>3.752972543089152</v>
+        <v>2.146155226858921</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.1178211000347</v>
+        <v>10.19068632033656</v>
       </c>
       <c r="L8">
-        <v>10.97580213057443</v>
+        <v>7.988514387819783</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.2817208683403</v>
+        <v>16.16389886972256</v>
       </c>
       <c r="C9">
-        <v>6.195192843573292</v>
+        <v>6.395482739167003</v>
       </c>
       <c r="D9">
-        <v>11.10933390395251</v>
+        <v>12.22392657527116</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>57.45741191065778</v>
+        <v>72.35985604754848</v>
       </c>
       <c r="G9">
-        <v>3.744350341478528</v>
+        <v>2.118409593134863</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.14743019466385</v>
+        <v>12.01038972634571</v>
       </c>
       <c r="L9">
-        <v>11.03101535327647</v>
+        <v>8.666464191903433</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.45075616909981</v>
+        <v>17.81500086313028</v>
       </c>
       <c r="C10">
-        <v>6.298198832757455</v>
+        <v>6.721387539340057</v>
       </c>
       <c r="D10">
-        <v>11.35567481097404</v>
+        <v>12.93810321220563</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>59.47115799376962</v>
+        <v>78.03458341221983</v>
       </c>
       <c r="G10">
-        <v>3.738559392610596</v>
+        <v>2.098325837965184</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.19543109901701</v>
+        <v>13.25626910345893</v>
       </c>
       <c r="L10">
-        <v>11.08265230271639</v>
+        <v>9.172957949072464</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.53411287956044</v>
+        <v>18.54574083286093</v>
       </c>
       <c r="C11">
-        <v>6.343145707301785</v>
+        <v>6.87074152373008</v>
       </c>
       <c r="D11">
-        <v>11.4651088664133</v>
+        <v>13.25884225241241</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>60.36753678036967</v>
+        <v>80.55631805965449</v>
       </c>
       <c r="G11">
-        <v>3.736041414325954</v>
+        <v>2.08918938660869</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.22293216577624</v>
+        <v>13.80586491983047</v>
       </c>
       <c r="L11">
-        <v>11.10850700305302</v>
+        <v>9.405215650386507</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.56658277687243</v>
+        <v>18.8197777515009</v>
       </c>
       <c r="C12">
-        <v>6.359893045981132</v>
+        <v>6.927582229409126</v>
       </c>
       <c r="D12">
-        <v>11.50615684829694</v>
+        <v>13.37978035766367</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>60.70390928029092</v>
+        <v>81.50313874295423</v>
       </c>
       <c r="G12">
-        <v>3.735104529393912</v>
+        <v>2.085723270605071</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.23415549806269</v>
+        <v>14.01176273569545</v>
       </c>
       <c r="L12">
-        <v>11.11863338123225</v>
+        <v>9.493456648860631</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.55954998876426</v>
+        <v>18.76087359654926</v>
       </c>
       <c r="C13">
-        <v>6.356298323789941</v>
+        <v>6.915325742351697</v>
       </c>
       <c r="D13">
-        <v>11.49733410356078</v>
+        <v>13.35375576711206</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>60.63160542205962</v>
+        <v>81.29957479311992</v>
       </c>
       <c r="G13">
-        <v>3.735305566992451</v>
+        <v>2.086470152936394</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.23170246066779</v>
+        <v>13.9675135204597</v>
       </c>
       <c r="L13">
-        <v>11.11643762418621</v>
+        <v>9.474438862598195</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.53676621804737</v>
+        <v>18.56833808279298</v>
       </c>
       <c r="C14">
-        <v>6.344528983568114</v>
+        <v>6.875411369819914</v>
       </c>
       <c r="D14">
-        <v>11.46849385201693</v>
+        <v>13.26880177554239</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>60.39527310395084</v>
+        <v>80.63437258879536</v>
       </c>
       <c r="G14">
-        <v>3.735964003817876</v>
+        <v>2.088904393600613</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.22383933286924</v>
+        <v>13.82284726779053</v>
       </c>
       <c r="L14">
-        <v>11.10933340316632</v>
+        <v>9.412469264949106</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.52292752936388</v>
+        <v>18.45006398553257</v>
       </c>
       <c r="C15">
-        <v>6.337284413424777</v>
+        <v>6.851003656580803</v>
       </c>
       <c r="D15">
-        <v>11.45077685431287</v>
+        <v>13.2167001255071</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>60.2501066319701</v>
+        <v>80.2258789369056</v>
       </c>
       <c r="G15">
-        <v>3.736369476302648</v>
+        <v>2.090394407990043</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.21912814761553</v>
+        <v>13.7339534683655</v>
       </c>
       <c r="L15">
-        <v>11.10502545440199</v>
+        <v>9.374549939553974</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.44543657628986</v>
+        <v>17.76685575922532</v>
       </c>
       <c r="C16">
-        <v>6.295223141775547</v>
+        <v>6.711659317649232</v>
       </c>
       <c r="D16">
-        <v>11.34846891296557</v>
+        <v>12.9170648419771</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>59.41216087779664</v>
+        <v>77.8686174157607</v>
       </c>
       <c r="G16">
-        <v>3.738726280102996</v>
+        <v>2.098922402790976</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.19374741141601</v>
+        <v>13.22002665643453</v>
       </c>
       <c r="L16">
-        <v>11.08100986609702</v>
+        <v>9.157818177103755</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.39953649073968</v>
+        <v>17.34267690694743</v>
       </c>
       <c r="C17">
-        <v>6.268931678146318</v>
+        <v>6.626540956483135</v>
       </c>
       <c r="D17">
-        <v>11.28502282163094</v>
+        <v>12.73223466343221</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>58.89289350989574</v>
+        <v>76.40750297572735</v>
       </c>
       <c r="G17">
-        <v>3.740201823533925</v>
+        <v>2.104149775470922</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.17962478028607</v>
+        <v>12.90051861223501</v>
       </c>
       <c r="L17">
-        <v>11.06687984653038</v>
+        <v>9.025344882913489</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.37374579449265</v>
+        <v>17.0967666530734</v>
       </c>
       <c r="C18">
-        <v>6.253629539782203</v>
+        <v>6.577677945005582</v>
       </c>
       <c r="D18">
-        <v>11.24828380936031</v>
+        <v>12.62552928620761</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>58.59238495523746</v>
+        <v>75.56144694391809</v>
       </c>
       <c r="G18">
-        <v>3.741061475543871</v>
+        <v>2.107156824305397</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.17203546710088</v>
+        <v>12.71511430563918</v>
       </c>
       <c r="L18">
-        <v>11.05897550330909</v>
+        <v>8.949321363386581</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.36511896264204</v>
+        <v>17.01316680404472</v>
       </c>
       <c r="C19">
-        <v>6.248417533498684</v>
+        <v>6.561146527965257</v>
       </c>
       <c r="D19">
-        <v>11.23580272505735</v>
+        <v>12.58933070067128</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>58.49032941221522</v>
+        <v>75.27400274270711</v>
       </c>
       <c r="G19">
-        <v>3.741354424504518</v>
+        <v>2.108175206326341</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.16955765129557</v>
+        <v>12.65205237846389</v>
       </c>
       <c r="L19">
-        <v>11.05633763028371</v>
+        <v>8.923610190310196</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.40435969147147</v>
+        <v>17.38802997557969</v>
       </c>
       <c r="C20">
-        <v>6.271749064407267</v>
+        <v>6.635591287811582</v>
       </c>
       <c r="D20">
-        <v>11.29180238467148</v>
+        <v>12.75195064601346</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>58.94836257137727</v>
+        <v>76.56362413883971</v>
       </c>
       <c r="G20">
-        <v>3.740043616075563</v>
+        <v>2.103593313927067</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.18107296206239</v>
+        <v>12.9346979910394</v>
       </c>
       <c r="L20">
-        <v>11.06836097471057</v>
+        <v>9.039429023153971</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.54343402190223</v>
+        <v>18.62496087860612</v>
       </c>
       <c r="C21">
-        <v>6.347993321089124</v>
+        <v>6.887126393457099</v>
       </c>
       <c r="D21">
-        <v>11.47697569280691</v>
+        <v>13.29376817139032</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>60.46477466458149</v>
+        <v>80.82997381487164</v>
       </c>
       <c r="G21">
-        <v>3.735770154828759</v>
+        <v>2.088189624976209</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.22612701052935</v>
+        <v>13.8653974399751</v>
       </c>
       <c r="L21">
-        <v>11.11141100886662</v>
+        <v>9.43066307022888</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.63958655388773</v>
+        <v>19.41790915789882</v>
       </c>
       <c r="C22">
-        <v>6.396232525845997</v>
+        <v>7.05324523445167</v>
       </c>
       <c r="D22">
-        <v>11.59570412543549</v>
+        <v>13.64490649813273</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>61.43786456890692</v>
+        <v>83.57139385110378</v>
       </c>
       <c r="G22">
-        <v>3.733074015816662</v>
+        <v>2.078081848750274</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.26028601610674</v>
+        <v>14.46084994087048</v>
       </c>
       <c r="L22">
-        <v>11.14150149557816</v>
+        <v>9.688074649998985</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.5877955592246</v>
+        <v>18.99601588066209</v>
       </c>
       <c r="C23">
-        <v>6.370631335153027</v>
+        <v>6.964379742649744</v>
       </c>
       <c r="D23">
-        <v>11.53255096415517</v>
+        <v>13.45773743841364</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>60.92022650231973</v>
+        <v>82.11232806442322</v>
       </c>
       <c r="G23">
-        <v>3.734504174537075</v>
+        <v>2.083482602542164</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.24162556220553</v>
+        <v>14.14412800509134</v>
       </c>
       <c r="L23">
-        <v>11.12526429982646</v>
+        <v>9.550518523928229</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.40217725832931</v>
+        <v>17.36753223850478</v>
       </c>
       <c r="C24">
-        <v>6.270475906130078</v>
+        <v>6.63149941589</v>
       </c>
       <c r="D24">
-        <v>11.28873816233235</v>
+        <v>12.74303843887956</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>58.92329114174102</v>
+        <v>76.49306061423688</v>
       </c>
       <c r="G24">
-        <v>3.740115106329196</v>
+        <v>2.103844884237721</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.18041658793539</v>
+        <v>12.9192508534309</v>
       </c>
       <c r="L24">
-        <v>11.06769067360209</v>
+        <v>9.033061157687722</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.22535195029981</v>
+        <v>15.62368318288609</v>
       </c>
       <c r="C25">
-        <v>6.155553733393596</v>
+        <v>6.275700623705957</v>
       </c>
       <c r="D25">
-        <v>11.01638533605263</v>
+        <v>11.95686027325279</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>56.70003242054506</v>
+        <v>70.21490564852536</v>
       </c>
       <c r="G25">
-        <v>3.746586842017204</v>
+        <v>2.125842760299228</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.13480347076997</v>
+        <v>11.53489938421564</v>
       </c>
       <c r="L25">
-        <v>11.01412198967354</v>
+        <v>8.48153483708472</v>
       </c>
       <c r="M25">
         <v>0</v>
